--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Igf2-Igf1r.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>8.533921000000001</v>
+        <v>17.60633566666667</v>
       </c>
       <c r="H2">
-        <v>25.601763</v>
+        <v>52.819007</v>
       </c>
       <c r="I2">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="J2">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.18520366666667</v>
+        <v>12.23245266666667</v>
       </c>
       <c r="N2">
-        <v>69.555611</v>
+        <v>36.697358</v>
       </c>
       <c r="O2">
-        <v>0.4216200689608106</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="P2">
-        <v>0.4216200689608105</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="Q2">
-        <v>197.8606964602437</v>
+        <v>215.3686676759451</v>
       </c>
       <c r="R2">
-        <v>1780.746268142193</v>
+        <v>1938.318009083506</v>
       </c>
       <c r="S2">
-        <v>0.004275753215883284</v>
+        <v>0.005124859349560721</v>
       </c>
       <c r="T2">
-        <v>0.004275753215883282</v>
+        <v>0.00512485934956072</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>8.533921000000001</v>
+        <v>17.60633566666667</v>
       </c>
       <c r="H3">
-        <v>25.601763</v>
+        <v>52.819007</v>
       </c>
       <c r="I3">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="J3">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.696291</v>
       </c>
       <c r="O3">
-        <v>0.210315924104302</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="P3">
-        <v>0.2103159241043019</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="Q3">
-        <v>98.69846879567035</v>
+        <v>203.6248485781152</v>
       </c>
       <c r="R3">
-        <v>888.2862191610332</v>
+        <v>1832.623637203037</v>
       </c>
       <c r="S3">
-        <v>0.002132865712623418</v>
+        <v>0.004845406345776432</v>
       </c>
       <c r="T3">
-        <v>0.002132865712623417</v>
+        <v>0.004845406345776431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>8.533921000000001</v>
+        <v>17.60633566666667</v>
       </c>
       <c r="H4">
-        <v>25.601763</v>
+        <v>52.819007</v>
       </c>
       <c r="I4">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="J4">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.14382633333333</v>
+        <v>20.18080466666667</v>
       </c>
       <c r="N4">
-        <v>54.431479</v>
+        <v>60.54241400000001</v>
       </c>
       <c r="O4">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="P4">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="Q4">
-        <v>154.8379805663864</v>
+        <v>355.3100209847665</v>
       </c>
       <c r="R4">
-        <v>1393.541825097477</v>
+        <v>3197.790188862899</v>
       </c>
       <c r="S4">
-        <v>0.003346035898951896</v>
+        <v>0.008454869051686936</v>
       </c>
       <c r="T4">
-        <v>0.003346035898951896</v>
+        <v>0.008454869051686933</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>8.533921000000001</v>
+        <v>17.60633566666667</v>
       </c>
       <c r="H5">
-        <v>25.601763</v>
+        <v>52.819007</v>
       </c>
       <c r="I5">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="J5">
-        <v>0.01014124689657672</v>
+        <v>0.01967183396478544</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.096289333333333</v>
+        <v>2.975728333333333</v>
       </c>
       <c r="N5">
-        <v>6.288868</v>
+        <v>8.927185</v>
       </c>
       <c r="O5">
-        <v>0.03812076296541245</v>
+        <v>0.06337483429318623</v>
       </c>
       <c r="P5">
-        <v>0.03812076296541244</v>
+        <v>0.06337483429318624</v>
       </c>
       <c r="Q5">
-        <v>17.88956756380934</v>
+        <v>52.39167188947722</v>
       </c>
       <c r="R5">
-        <v>161.006108074284</v>
+        <v>471.525047005295</v>
       </c>
       <c r="S5">
-        <v>0.0003865920691181259</v>
+        <v>0.00124669921776135</v>
       </c>
       <c r="T5">
-        <v>0.0003865920691181257</v>
+        <v>0.00124669921776135</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1795.984986</v>
       </c>
       <c r="I6">
-        <v>0.7114169116232693</v>
+        <v>0.6688940299055509</v>
       </c>
       <c r="J6">
-        <v>0.7114169116232691</v>
+        <v>0.6688940299055508</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.18520366666667</v>
+        <v>12.23245266666667</v>
       </c>
       <c r="N6">
-        <v>69.555611</v>
+        <v>36.697358</v>
       </c>
       <c r="O6">
-        <v>0.4216200689608106</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="P6">
-        <v>0.4216200689608105</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="Q6">
-        <v>13880.09256089516</v>
+        <v>7323.100443762999</v>
       </c>
       <c r="R6">
-        <v>124920.8330480564</v>
+        <v>65907.90399386699</v>
       </c>
       <c r="S6">
-        <v>0.2999476473384897</v>
+        <v>0.1742586801598292</v>
       </c>
       <c r="T6">
-        <v>0.2999476473384896</v>
+        <v>0.1742586801598292</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1795.984986</v>
       </c>
       <c r="I7">
-        <v>0.7114169116232693</v>
+        <v>0.6688940299055509</v>
       </c>
       <c r="J7">
-        <v>0.7114169116232691</v>
+        <v>0.6688940299055508</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>34.696291</v>
       </c>
       <c r="O7">
-        <v>0.210315924104302</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="P7">
-        <v>0.2103159241043019</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="Q7">
         <v>6923.779745098547</v>
@@ -883,10 +883,10 @@
         <v>62314.01770588693</v>
       </c>
       <c r="S7">
-        <v>0.1496223051914764</v>
+        <v>0.1647565439479693</v>
       </c>
       <c r="T7">
-        <v>0.1496223051914763</v>
+        <v>0.1647565439479692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1795.984986</v>
       </c>
       <c r="I8">
-        <v>0.7114169116232693</v>
+        <v>0.6688940299055509</v>
       </c>
       <c r="J8">
-        <v>0.7114169116232691</v>
+        <v>0.6688940299055508</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>18.14382633333333</v>
+        <v>20.18080466666667</v>
       </c>
       <c r="N8">
-        <v>54.431479</v>
+        <v>60.54241400000001</v>
       </c>
       <c r="O8">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="P8">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="Q8">
-        <v>10862.0132277527</v>
+        <v>12081.47406224402</v>
       </c>
       <c r="R8">
-        <v>97758.11904977429</v>
+        <v>108733.2665601962</v>
       </c>
       <c r="S8">
-        <v>0.2347272036357269</v>
+        <v>0.2874877574927865</v>
       </c>
       <c r="T8">
-        <v>0.2347272036357269</v>
+        <v>0.2874877574927864</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1795.984986</v>
       </c>
       <c r="I9">
-        <v>0.7114169116232693</v>
+        <v>0.6688940299055509</v>
       </c>
       <c r="J9">
-        <v>0.7114169116232691</v>
+        <v>0.6688940299055508</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.096289333333333</v>
+        <v>2.975728333333333</v>
       </c>
       <c r="N9">
-        <v>6.288868</v>
+        <v>8.927185</v>
       </c>
       <c r="O9">
-        <v>0.03812076296541245</v>
+        <v>0.06337483429318623</v>
       </c>
       <c r="P9">
-        <v>0.03812076296541244</v>
+        <v>0.06337483429318624</v>
       </c>
       <c r="Q9">
-        <v>1254.968056326205</v>
+        <v>1781.454469693823</v>
       </c>
       <c r="R9">
-        <v>11294.71250693585</v>
+        <v>16033.09022724441</v>
       </c>
       <c r="S9">
-        <v>0.02711975545757643</v>
+        <v>0.04239104830496584</v>
       </c>
       <c r="T9">
-        <v>0.02711975545757641</v>
+        <v>0.04239104830496584</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>233.627271</v>
+        <v>274.6625416666666</v>
       </c>
       <c r="H10">
-        <v>700.881813</v>
+        <v>823.987625</v>
       </c>
       <c r="I10">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029997</v>
       </c>
       <c r="J10">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029996</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.18520366666667</v>
+        <v>12.23245266666667</v>
       </c>
       <c r="N10">
-        <v>69.555611</v>
+        <v>36.697358</v>
       </c>
       <c r="O10">
-        <v>0.4216200689608106</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="P10">
-        <v>0.4216200689608105</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="Q10">
-        <v>5416.695860222527</v>
+        <v>3359.796540243861</v>
       </c>
       <c r="R10">
-        <v>48750.26274200274</v>
+        <v>30238.16886219475</v>
       </c>
       <c r="S10">
-        <v>0.1170543476200782</v>
+        <v>0.07994888438367619</v>
       </c>
       <c r="T10">
-        <v>0.1170543476200781</v>
+        <v>0.07994888438367617</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>233.627271</v>
+        <v>274.6625416666666</v>
       </c>
       <c r="H11">
-        <v>700.881813</v>
+        <v>823.987625</v>
       </c>
       <c r="I11">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029997</v>
       </c>
       <c r="J11">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029996</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>34.696291</v>
       </c>
       <c r="O11">
-        <v>0.210315924104302</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="P11">
-        <v>0.2103159241043019</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="Q11">
-        <v>2701.999926717287</v>
+        <v>3176.590490822097</v>
       </c>
       <c r="R11">
-        <v>24317.99934045558</v>
+        <v>28589.31441739888</v>
       </c>
       <c r="S11">
-        <v>0.05838999398397047</v>
+        <v>0.07558935871354512</v>
       </c>
       <c r="T11">
-        <v>0.05838999398397045</v>
+        <v>0.07558935871354512</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>233.627271</v>
+        <v>274.6625416666666</v>
       </c>
       <c r="H12">
-        <v>700.881813</v>
+        <v>823.987625</v>
       </c>
       <c r="I12">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029997</v>
       </c>
       <c r="J12">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029996</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.14382633333333</v>
+        <v>20.18080466666667</v>
       </c>
       <c r="N12">
-        <v>54.431479</v>
+        <v>60.54241400000001</v>
       </c>
       <c r="O12">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="P12">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="Q12">
-        <v>4238.892631754603</v>
+        <v>5542.911102625195</v>
       </c>
       <c r="R12">
-        <v>38150.03368579143</v>
+        <v>49886.19992362676</v>
       </c>
       <c r="S12">
-        <v>0.09160211768308649</v>
+        <v>0.1318977365399073</v>
       </c>
       <c r="T12">
-        <v>0.09160211768308647</v>
+        <v>0.1318977365399073</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>233.627271</v>
+        <v>274.6625416666666</v>
       </c>
       <c r="H13">
-        <v>700.881813</v>
+        <v>823.987625</v>
       </c>
       <c r="I13">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029997</v>
       </c>
       <c r="J13">
-        <v>0.2776299238045956</v>
+        <v>0.3068847498029996</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.096289333333333</v>
+        <v>2.975728333333333</v>
       </c>
       <c r="N13">
-        <v>6.288868</v>
+        <v>8.927185</v>
       </c>
       <c r="O13">
-        <v>0.03812076296541245</v>
+        <v>0.06337483429318623</v>
       </c>
       <c r="P13">
-        <v>0.03812076296541244</v>
+        <v>0.06337483429318624</v>
       </c>
       <c r="Q13">
-        <v>489.750356173076</v>
+        <v>817.3211073428471</v>
       </c>
       <c r="R13">
-        <v>4407.753205557684</v>
+        <v>7355.889966085625</v>
       </c>
       <c r="S13">
-        <v>0.01058346451746051</v>
+        <v>0.01944877016587102</v>
       </c>
       <c r="T13">
-        <v>0.0105834645174605</v>
+        <v>0.01944877016587102</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6832336666666666</v>
+        <v>4.071711</v>
       </c>
       <c r="H14">
-        <v>2.049701</v>
+        <v>12.215133</v>
       </c>
       <c r="I14">
-        <v>0.0008119176755585231</v>
+        <v>0.004549386326664026</v>
       </c>
       <c r="J14">
-        <v>0.000811917675558523</v>
+        <v>0.004549386326664025</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.18520366666667</v>
+        <v>12.23245266666667</v>
       </c>
       <c r="N14">
-        <v>69.555611</v>
+        <v>36.697358</v>
       </c>
       <c r="O14">
-        <v>0.4216200689608106</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="P14">
-        <v>0.4216200689608105</v>
+        <v>0.2605176191876535</v>
       </c>
       <c r="Q14">
-        <v>15.84091171359011</v>
+        <v>49.807012079846</v>
       </c>
       <c r="R14">
-        <v>142.568205422311</v>
+        <v>448.263108718614</v>
       </c>
       <c r="S14">
-        <v>0.0003423207863594855</v>
+        <v>0.001185195294587376</v>
       </c>
       <c r="T14">
-        <v>0.0003423207863594854</v>
+        <v>0.001185195294587376</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6832336666666666</v>
+        <v>4.071711</v>
       </c>
       <c r="H15">
-        <v>2.049701</v>
+        <v>12.215133</v>
       </c>
       <c r="I15">
-        <v>0.0008119176755585231</v>
+        <v>0.004549386326664026</v>
       </c>
       <c r="J15">
-        <v>0.000811917675558523</v>
+        <v>0.004549386326664025</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>34.696291</v>
       </c>
       <c r="O15">
-        <v>0.210315924104302</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="P15">
-        <v>0.2103159241043019</v>
+        <v>0.2463118768921188</v>
       </c>
       <c r="Q15">
-        <v>7.901891373221222</v>
+        <v>47.091089907967</v>
       </c>
       <c r="R15">
-        <v>71.11702235899099</v>
+        <v>423.819809171703</v>
       </c>
       <c r="S15">
-        <v>0.0001707592162317076</v>
+        <v>0.001120567884827958</v>
       </c>
       <c r="T15">
-        <v>0.0001707592162317076</v>
+        <v>0.001120567884827958</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6832336666666666</v>
+        <v>4.071711</v>
       </c>
       <c r="H16">
-        <v>2.049701</v>
+        <v>12.215133</v>
       </c>
       <c r="I16">
-        <v>0.0008119176755585231</v>
+        <v>0.004549386326664026</v>
       </c>
       <c r="J16">
-        <v>0.000811917675558523</v>
+        <v>0.004549386326664025</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.14382633333333</v>
+        <v>20.18080466666667</v>
       </c>
       <c r="N16">
-        <v>54.431479</v>
+        <v>60.54241400000001</v>
       </c>
       <c r="O16">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="P16">
-        <v>0.3299432439694752</v>
+        <v>0.4297956696270414</v>
       </c>
       <c r="Q16">
-        <v>12.39647299308655</v>
+        <v>82.17040435011801</v>
       </c>
       <c r="R16">
-        <v>111.568256937779</v>
+        <v>739.5336391510621</v>
       </c>
       <c r="S16">
-        <v>0.000267886751709935</v>
+        <v>0.001955306542660671</v>
       </c>
       <c r="T16">
-        <v>0.0002678867517099349</v>
+        <v>0.00195530654266067</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6832336666666666</v>
+        <v>4.071711</v>
       </c>
       <c r="H17">
-        <v>2.049701</v>
+        <v>12.215133</v>
       </c>
       <c r="I17">
-        <v>0.0008119176755585231</v>
+        <v>0.004549386326664026</v>
       </c>
       <c r="J17">
-        <v>0.000811917675558523</v>
+        <v>0.004549386326664025</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.096289333333333</v>
+        <v>2.975728333333333</v>
       </c>
       <c r="N17">
-        <v>6.288868</v>
+        <v>8.927185</v>
       </c>
       <c r="O17">
-        <v>0.03812076296541245</v>
+        <v>0.06337483429318623</v>
       </c>
       <c r="P17">
-        <v>0.03812076296541244</v>
+        <v>0.06337483429318624</v>
       </c>
       <c r="Q17">
-        <v>1.432255447607556</v>
+        <v>12.116305787845</v>
       </c>
       <c r="R17">
-        <v>12.890299028468</v>
+        <v>109.046752090605</v>
       </c>
       <c r="S17">
-        <v>3.095092125739511E-05</v>
+        <v>0.0002883166045880198</v>
       </c>
       <c r="T17">
-        <v>3.09509212573951E-05</v>
+        <v>0.0002883166045880198</v>
       </c>
     </row>
   </sheetData>
